--- a/uniaxial-loading-unloading/time_strain_stress/0d05_3d0.xlsx
+++ b/uniaxial-loading-unloading/time_strain_stress/0d05_3d0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
   <si>
     <t>Time_s</t>
   </si>
@@ -67,7 +67,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -91,1663 +91,1586 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.47999999999999998</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="B3" s="0">
-        <v>1.024</v>
+        <v>1.026</v>
       </c>
       <c r="C3" s="0">
-        <v>6.9623269213877892</v>
+        <v>7.348215549156726</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.95999999999999996</v>
+        <v>1.02</v>
       </c>
       <c r="B4" s="0">
-        <v>1.048</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="C4" s="0">
-        <v>11.087867018006147</v>
+        <v>11.534679555738382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.4399999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="B5" s="0">
-        <v>1.0720000000000001</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>14.41075081247255</v>
+        <v>14.90838009049774</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1.9199999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="B6" s="0">
-        <v>1.0960000000000001</v>
+        <v>1.101</v>
       </c>
       <c r="C6" s="0">
-        <v>17.262886780851996</v>
+        <v>17.823490744549574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.3999999999999999</v>
+        <v>2.52</v>
       </c>
       <c r="B7" s="0">
-        <v>1.1200000000000001</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="C7" s="0">
-        <v>19.796725867369339</v>
+        <v>20.386169477581245</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>2.8799999999999999</v>
+        <v>3.02</v>
       </c>
       <c r="B8" s="0">
-        <v>1.1439999999999999</v>
+        <v>1.151</v>
       </c>
       <c r="C8" s="0">
-        <v>22.059705401844528</v>
+        <v>22.685061291649525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.3599999999999999</v>
+        <v>3.52</v>
       </c>
       <c r="B9" s="0">
-        <v>1.1679999999999999</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="C9" s="0">
-        <v>24.129396398770307</v>
+        <v>24.766524064171126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>3.8399999999999999</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="B10" s="0">
-        <v>1.1919999999999999</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="C10" s="0">
-        <v>26.006979885814665</v>
+        <v>26.669896338955166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.3200000000000003</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B11" s="0">
-        <v>1.216</v>
+        <v>1.226</v>
       </c>
       <c r="C11" s="0">
-        <v>27.721935529205087</v>
+        <v>28.404586589880712</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>4.7999999999999998</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="B12" s="0">
-        <v>1.24</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="C12" s="0">
-        <v>29.323654633289408</v>
+        <v>30.004830933772119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5.2800000000000002</v>
+        <v>5.5199999999999996</v>
       </c>
       <c r="B13" s="0">
-        <v>1.264</v>
+        <v>1.276</v>
       </c>
       <c r="C13" s="0">
-        <v>30.794996750109792</v>
+        <v>31.497389551624849</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>5.7599999999999998</v>
+        <v>6.0199999999999996</v>
       </c>
       <c r="B14" s="0">
-        <v>1.288</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="C14" s="0">
-        <v>32.175916732542809</v>
+        <v>32.880193336075692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>6.2400000000000002</v>
+        <v>6.5199999999999996</v>
       </c>
       <c r="B15" s="0">
-        <v>1.3120000000000001</v>
+        <v>1.3260000000000001</v>
       </c>
       <c r="C15" s="0">
-        <v>33.462771541501972</v>
+        <v>34.165109008638431</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>6.7199999999999998</v>
+        <v>7.0199999999999996</v>
       </c>
       <c r="B16" s="0">
-        <v>1.3360000000000001</v>
+        <v>1.351</v>
       </c>
       <c r="C16" s="0">
-        <v>34.658836187966614</v>
+        <v>35.366407239819011</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>7.2000000000000002</v>
+        <v>7.5199999999999996</v>
       </c>
       <c r="B17" s="0">
-        <v>1.3600000000000001</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="C17" s="0">
-        <v>35.779584892402276</v>
+        <v>36.49405183052243</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>7.6799999999999997</v>
+        <v>8.0199999999999996</v>
       </c>
       <c r="B18" s="0">
-        <v>1.3839999999999999</v>
+        <v>1.401</v>
       </c>
       <c r="C18" s="0">
-        <v>36.84091453667105</v>
+        <v>37.554361168243517</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>8.1600000000000001</v>
+        <v>8.5199999999999996</v>
       </c>
       <c r="B19" s="0">
-        <v>1.4079999999999999</v>
+        <v>1.4259999999999999</v>
       </c>
       <c r="C19" s="0">
-        <v>37.838636802810719</v>
+        <v>38.559462772521613</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>8.6400000000000006</v>
+        <v>9.0199999999999996</v>
       </c>
       <c r="B20" s="0">
-        <v>1.4319999999999999</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="C20" s="0">
-        <v>38.783828722002632</v>
+        <v>39.491781982723161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9.1199999999999992</v>
+        <v>9.5199999999999996</v>
       </c>
       <c r="B21" s="0">
-        <v>1.456</v>
+        <v>1.476</v>
       </c>
       <c r="C21" s="0">
-        <v>39.671703118137899</v>
+        <v>40.377056355409302</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>9.5999999999999996</v>
+        <v>10.02</v>
       </c>
       <c r="B22" s="0">
-        <v>1.48</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="C22" s="0">
-        <v>40.521783223539742</v>
+        <v>41.23332538050186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.08</v>
+        <v>10.52</v>
       </c>
       <c r="B23" s="0">
-        <v>1.504</v>
+        <v>1.526</v>
       </c>
       <c r="C23" s="0">
-        <v>41.330865524813348</v>
+        <v>42.03722254216374</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>10.56</v>
+        <v>11.02</v>
       </c>
       <c r="B24" s="0">
-        <v>1.528</v>
+        <v>1.5510000000000002</v>
       </c>
       <c r="C24" s="0">
-        <v>42.096928414580582</v>
+        <v>42.803877416700949</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>11.039999999999999</v>
+        <v>11.52</v>
       </c>
       <c r="B25" s="0">
-        <v>1.552</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="C25" s="0">
-        <v>42.831961879666217</v>
+        <v>43.526821883998359</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>11.52</v>
+        <v>12.02</v>
       </c>
       <c r="B26" s="0">
-        <v>1.5760000000000001</v>
+        <v>1.601</v>
       </c>
       <c r="C26" s="0">
-        <v>43.525078787878783</v>
+        <v>44.217262032085564</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>12</v>
+        <v>12.52</v>
       </c>
       <c r="B27" s="0">
-        <v>1.6000000000000001</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="C27" s="0">
-        <v>44.19447220026349</v>
+        <v>44.888819415878253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>12.48</v>
+        <v>13.02</v>
       </c>
       <c r="B28" s="0">
-        <v>1.6240000000000001</v>
+        <v>1.651</v>
       </c>
       <c r="C28" s="0">
-        <v>44.835989459815529</v>
+        <v>45.522547922665574</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>12.960000000000001</v>
+        <v>13.52</v>
       </c>
       <c r="B29" s="0">
-        <v>1.6480000000000001</v>
+        <v>1.6760000000000002</v>
       </c>
       <c r="C29" s="0">
-        <v>45.445619499341227</v>
+        <v>46.140838338132468</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>13.44</v>
+        <v>14.02</v>
       </c>
       <c r="B30" s="0">
-        <v>1.6720000000000002</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="C30" s="0">
-        <v>46.047660781730329</v>
+        <v>46.726900041135337</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>13.92</v>
+        <v>14.52</v>
       </c>
       <c r="B31" s="0">
-        <v>1.6960000000000002</v>
+        <v>1.726</v>
       </c>
       <c r="C31" s="0">
-        <v>46.60825630215195</v>
+        <v>47.293107363225005</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>14.4</v>
+        <v>15.02</v>
       </c>
       <c r="B32" s="0">
-        <v>1.7200000000000002</v>
+        <v>1.7509999999999999</v>
       </c>
       <c r="C32" s="0">
-        <v>47.145081598594629</v>
+        <v>47.833822295351709</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>14.880000000000001</v>
+        <v>15.52</v>
       </c>
       <c r="B33" s="0">
-        <v>1.7440000000000002</v>
+        <v>1.776</v>
       </c>
       <c r="C33" s="0">
-        <v>47.680182696530515</v>
+        <v>48.357828877005346</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>15.359999999999999</v>
+        <v>16.02</v>
       </c>
       <c r="B34" s="0">
-        <v>1.768</v>
+        <v>1.8010000000000002</v>
       </c>
       <c r="C34" s="0">
-        <v>48.195639525691696</v>
+        <v>48.86608391608393</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>15.84</v>
+        <v>16.52</v>
       </c>
       <c r="B35" s="0">
-        <v>1.792</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="C35" s="0">
-        <v>48.683780939833106</v>
+        <v>49.357842040312633</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>16.32</v>
+        <v>17.02</v>
       </c>
       <c r="B36" s="0">
-        <v>1.8160000000000001</v>
+        <v>1.851</v>
       </c>
       <c r="C36" s="0">
-        <v>49.158101712779967</v>
+        <v>49.830967503085162</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>16.800000000000001</v>
+        <v>17.52</v>
       </c>
       <c r="B37" s="0">
-        <v>1.8400000000000001</v>
+        <v>1.8759999999999999</v>
       </c>
       <c r="C37" s="0">
-        <v>49.626556697408866</v>
+        <v>50.295606746194977</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>17.280000000000001</v>
+        <v>18.02</v>
       </c>
       <c r="B38" s="0">
-        <v>1.8640000000000001</v>
+        <v>1.901</v>
       </c>
       <c r="C38" s="0">
-        <v>50.080758717610884</v>
+        <v>50.751120526532304</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>17.760000000000002</v>
+        <v>18.52</v>
       </c>
       <c r="B39" s="0">
-        <v>1.8880000000000001</v>
+        <v>1.9260000000000002</v>
       </c>
       <c r="C39" s="0">
-        <v>50.506232059727708</v>
+        <v>51.187651995063767</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>18.239999999999998</v>
+        <v>19.02</v>
       </c>
       <c r="B40" s="0">
-        <v>1.9119999999999999</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="C40" s="0">
-        <v>50.944188493631962</v>
+        <v>51.623060468942832</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>18.719999999999999</v>
+        <v>19.52</v>
       </c>
       <c r="B41" s="0">
-        <v>1.9359999999999999</v>
+        <v>1.976</v>
       </c>
       <c r="C41" s="0">
-        <v>51.3526974088713</v>
+        <v>52.032117647058833</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>19.199999999999999</v>
+        <v>20.02</v>
       </c>
       <c r="B42" s="0">
-        <v>1.96</v>
+        <v>2.0010000000000003</v>
       </c>
       <c r="C42" s="0">
-        <v>51.755656741326312</v>
+        <v>52.436128342245986</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>19.68</v>
+        <v>20.52</v>
       </c>
       <c r="B43" s="0">
-        <v>1.984</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="C43" s="0">
-        <v>52.150262099253396</v>
+        <v>52.828662278897568</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>20.16</v>
+        <v>21.02</v>
       </c>
       <c r="B44" s="0">
-        <v>2.008</v>
+        <v>2.0510000000000002</v>
       </c>
       <c r="C44" s="0">
-        <v>52.534746772068495</v>
+        <v>53.210340600575904</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>20.640000000000001</v>
+        <v>21.52</v>
       </c>
       <c r="B45" s="0">
-        <v>2.032</v>
+        <v>2.0760000000000001</v>
       </c>
       <c r="C45" s="0">
-        <v>52.912729029424675</v>
+        <v>53.58260304401481</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>21.120000000000001</v>
+        <v>22.02</v>
       </c>
       <c r="B46" s="0">
-        <v>2.056</v>
+        <v>2.101</v>
       </c>
       <c r="C46" s="0">
-        <v>53.283261308739569</v>
+        <v>53.943971205265335</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>21.600000000000001</v>
+        <v>22.52</v>
       </c>
       <c r="B47" s="0">
-        <v>2.0800000000000001</v>
+        <v>2.1260000000000003</v>
       </c>
       <c r="C47" s="0">
-        <v>53.640323935002179</v>
+        <v>54.317472645002077</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>22.079999999999998</v>
+        <v>23.02</v>
       </c>
       <c r="B48" s="0">
-        <v>2.1040000000000001</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="C48" s="0">
-        <v>53.995595783926213</v>
+        <v>54.665870012340598</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>22.559999999999999</v>
+        <v>23.52</v>
       </c>
       <c r="B49" s="0">
-        <v>2.1280000000000001</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="C49" s="0">
-        <v>54.346429336846704</v>
+        <v>55.012807897984395</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>23.039999999999999</v>
+        <v>24.02</v>
       </c>
       <c r="B50" s="0">
-        <v>2.1520000000000001</v>
+        <v>2.2010000000000001</v>
       </c>
       <c r="C50" s="0">
-        <v>54.682461484409302</v>
+        <v>55.362110242698478</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>23.52</v>
+        <v>24.52</v>
       </c>
       <c r="B51" s="0">
-        <v>2.1760000000000002</v>
+        <v>2.226</v>
       </c>
       <c r="C51" s="0">
-        <v>55.012364163372844</v>
+        <v>55.70496832579186</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>24</v>
+        <v>25.02</v>
       </c>
       <c r="B52" s="0">
-        <v>2.2000000000000002</v>
+        <v>2.2510000000000003</v>
       </c>
       <c r="C52" s="0">
-        <v>55.349016073781279</v>
+        <v>56.038079802550399</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>24.48</v>
+        <v>25.52</v>
       </c>
       <c r="B53" s="0">
-        <v>2.2240000000000002</v>
+        <v>2.2759999999999998</v>
       </c>
       <c r="C53" s="0">
-        <v>55.675882652613069</v>
+        <v>56.372973262032083</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>24.960000000000001</v>
+        <v>26.02</v>
       </c>
       <c r="B54" s="0">
-        <v>2.2480000000000002</v>
+        <v>2.3010000000000002</v>
       </c>
       <c r="C54" s="0">
-        <v>55.996608871321889</v>
+        <v>56.687742492801327</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>25.440000000000001</v>
+        <v>26.52</v>
       </c>
       <c r="B55" s="0">
-        <v>2.2720000000000002</v>
+        <v>2.3260000000000001</v>
       </c>
       <c r="C55" s="0">
-        <v>56.315017654808948</v>
+        <v>57.01910242698478</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>25.920000000000002</v>
+        <v>27.02</v>
       </c>
       <c r="B56" s="0">
-        <v>2.2960000000000003</v>
+        <v>2.351</v>
       </c>
       <c r="C56" s="0">
-        <v>56.628678436539289</v>
+        <v>57.320914027149321</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>26.399999999999999</v>
+        <v>27.52</v>
       </c>
       <c r="B57" s="0">
-        <v>2.3200000000000003</v>
+        <v>2.3760000000000003</v>
       </c>
       <c r="C57" s="0">
-        <v>56.938974791392155</v>
+        <v>57.653847799259566</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>26.879999999999999</v>
+        <v>28.02</v>
       </c>
       <c r="B58" s="0">
-        <v>2.3440000000000003</v>
+        <v>2.4009999999999998</v>
       </c>
       <c r="C58" s="0">
-        <v>57.237597013614398</v>
+        <v>57.947806663924325</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>27.359999999999999</v>
+        <v>28.52</v>
       </c>
       <c r="B59" s="0">
-        <v>2.3680000000000003</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="C59" s="0">
-        <v>57.542047606499771</v>
+        <v>58.272805429864256</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>27.84</v>
+        <v>29.02</v>
       </c>
       <c r="B60" s="0">
-        <v>2.3920000000000003</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="C60" s="0">
-        <v>57.838969872639431</v>
+        <v>58.553966269025096</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>28.32</v>
+        <v>29.52</v>
       </c>
       <c r="B61" s="0">
-        <v>2.4160000000000004</v>
+        <v>2.476</v>
       </c>
       <c r="C61" s="0">
-        <v>58.136951954325866</v>
+        <v>58.859460304401487</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>28.800000000000001</v>
+        <v>30.02</v>
       </c>
       <c r="B62" s="0">
-        <v>2.4400000000000004</v>
+        <v>2.5010000000000003</v>
       </c>
       <c r="C62" s="0">
-        <v>58.42954501537109</v>
+        <v>59.158009872480477</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>29.280000000000001</v>
+        <v>30.52</v>
       </c>
       <c r="B63" s="0">
-        <v>2.4640000000000004</v>
+        <v>2.5259999999999998</v>
       </c>
       <c r="C63" s="0">
-        <v>58.707644620114174</v>
+        <v>59.458875359934211</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>29.760000000000002</v>
+        <v>31.02</v>
       </c>
       <c r="B64" s="0">
-        <v>2.4880000000000004</v>
+        <v>2.5510000000000002</v>
       </c>
       <c r="C64" s="0">
-        <v>58.99977145366708</v>
+        <v>59.73950308515014</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>30.239999999999998</v>
+        <v>31.52</v>
       </c>
       <c r="B65" s="0">
-        <v>2.512</v>
+        <v>2.5760000000000001</v>
       </c>
       <c r="C65" s="0">
-        <v>59.287562406675434</v>
+        <v>60.032666392431096</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>30.719999999999999</v>
+        <v>32.020000000000003</v>
       </c>
       <c r="B66" s="0">
-        <v>2.536</v>
+        <v>2.601</v>
       </c>
       <c r="C66" s="0">
-        <v>59.569318050065867</v>
+        <v>60.327949814890999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>31.199999999999999</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="B67" s="0">
-        <v>2.5600000000000001</v>
+        <v>2.6260000000000003</v>
       </c>
       <c r="C67" s="0">
-        <v>59.843475450153711</v>
+        <v>60.611935828877023</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>31.68</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="B68" s="0">
-        <v>2.5840000000000001</v>
+        <v>2.6510000000000002</v>
       </c>
       <c r="C68" s="0">
-        <v>60.133512867808498</v>
+        <v>60.900946112710841</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>32.159999999999997</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="B69" s="0">
-        <v>2.6079999999999997</v>
+        <v>2.6760000000000002</v>
       </c>
       <c r="C69" s="0">
-        <v>60.408048660518212</v>
+        <v>61.173009461127116</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>32.640000000000001</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="B70" s="0">
-        <v>2.6320000000000001</v>
+        <v>2.7010000000000005</v>
       </c>
       <c r="C70" s="0">
-        <v>60.684589371980671</v>
+        <v>61.459427396133286</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>33.119999999999997</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="B71" s="0">
-        <v>2.6559999999999997</v>
+        <v>2.726</v>
       </c>
       <c r="C71" s="0">
-        <v>60.955984716732537</v>
+        <v>61.731330316742088</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>33.600000000000001</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="B72" s="0">
-        <v>2.6800000000000002</v>
+        <v>2.7510000000000003</v>
       </c>
       <c r="C72" s="0">
-        <v>61.217790074659632</v>
+        <v>62.012801316330737</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>34.079999999999998</v>
+        <v>35.520000000000003</v>
       </c>
       <c r="B73" s="0">
-        <v>2.7039999999999997</v>
+        <v>2.7760000000000002</v>
       </c>
       <c r="C73" s="0">
-        <v>61.489088274044796</v>
+        <v>62.279857671740039</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>34.560000000000002</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="B74" s="0">
-        <v>2.7280000000000002</v>
+        <v>2.8010000000000002</v>
       </c>
       <c r="C74" s="0">
-        <v>61.757205094422467</v>
+        <v>62.567065405183058</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>35.039999999999999</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="B75" s="0">
-        <v>2.7519999999999998</v>
+        <v>2.8260000000000005</v>
       </c>
       <c r="C75" s="0">
-        <v>62.024724286341652</v>
+        <v>62.838793089263682</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>35.520000000000003</v>
+        <v>37.020000000000003</v>
       </c>
       <c r="B76" s="0">
-        <v>2.7760000000000002</v>
+        <v>2.851</v>
       </c>
       <c r="C76" s="0">
-        <v>62.285504787000427</v>
+        <v>63.116771698889352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>36</v>
+        <v>37.520000000000003</v>
       </c>
       <c r="B77" s="0">
-        <v>2.7999999999999998</v>
+        <v>2.8760000000000003</v>
       </c>
       <c r="C77" s="0">
-        <v>62.554560562143145</v>
+        <v>63.383462772521618</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>36.479999999999997</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="B78" s="0">
-        <v>2.8239999999999998</v>
+        <v>2.9010000000000002</v>
       </c>
       <c r="C78" s="0">
-        <v>62.816377689942904</v>
+        <v>63.660008227067067</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>36.960000000000001</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="B79" s="0">
-        <v>2.8479999999999999</v>
+        <v>2.9260000000000002</v>
       </c>
       <c r="C79" s="0">
-        <v>63.08209819938515</v>
+        <v>63.92423200329084</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>37.439999999999998</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="B80" s="0">
-        <v>2.8719999999999999</v>
+        <v>2.9510000000000005</v>
       </c>
       <c r="C80" s="0">
-        <v>63.338545981554667</v>
+        <v>64.199661044837526</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>37.920000000000002</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="B81" s="0">
-        <v>2.8959999999999999</v>
+        <v>2.976</v>
       </c>
       <c r="C81" s="0">
-        <v>63.605176811594177</v>
+        <v>64.477305635540944</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>38.399999999999999</v>
+        <v>40.000999999999998</v>
       </c>
       <c r="B82" s="0">
-        <v>2.9199999999999999</v>
+        <v>2.9519500000000001</v>
       </c>
       <c r="C82" s="0">
-        <v>63.860564075537972</v>
+        <v>63.21397146970677</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>38.880000000000003</v>
+        <v>40.496000000000002</v>
       </c>
       <c r="B83" s="0">
-        <v>2.944</v>
+        <v>2.9272</v>
       </c>
       <c r="C83" s="0">
-        <v>64.128363987703111</v>
+        <v>62.546628024382045</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>39.359999999999999</v>
+        <v>40.996000000000002</v>
       </c>
       <c r="B84" s="0">
-        <v>2.968</v>
+        <v>2.9022000000000001</v>
       </c>
       <c r="C84" s="0">
-        <v>64.389407290294244</v>
+        <v>60.985523353651715</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>39.840000000000003</v>
+        <v>41.496000000000002</v>
       </c>
       <c r="B85" s="0">
-        <v>2.992</v>
+        <v>2.8772000000000002</v>
       </c>
       <c r="C85" s="0">
-        <v>64.651881186446388</v>
+        <v>59.623330092367539</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>40.295999999999999</v>
+        <v>41.996000000000002</v>
       </c>
       <c r="B86" s="0">
-        <v>2.9692000000000003</v>
+        <v>2.8521999999999998</v>
       </c>
       <c r="C86" s="0">
-        <v>63.311051189916768</v>
+        <v>58.383968064021545</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>40.776000000000003</v>
+        <v>42.496000000000002</v>
       </c>
       <c r="B87" s="0">
-        <v>2.9451999999999998</v>
+        <v>2.8271999999999999</v>
       </c>
       <c r="C87" s="0">
-        <v>61.631439294127041</v>
+        <v>57.22511499195992</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>41.256</v>
+        <v>42.996000000000002</v>
       </c>
       <c r="B88" s="0">
-        <v>2.9212000000000002</v>
+        <v>2.8022</v>
       </c>
       <c r="C88" s="0">
-        <v>60.268579869844679</v>
+        <v>56.116503870461081</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>41.735999999999997</v>
+        <v>43.496000000000002</v>
       </c>
       <c r="B89" s="0">
-        <v>2.8972000000000002</v>
+        <v>2.7772000000000001</v>
       </c>
       <c r="C89" s="0">
-        <v>59.023905617439198</v>
+        <v>55.066222654351009</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>42.216000000000001</v>
+        <v>43.996000000000002</v>
       </c>
       <c r="B90" s="0">
-        <v>2.8732000000000002</v>
+        <v>2.7522000000000002</v>
       </c>
       <c r="C90" s="0">
-        <v>57.869567852437413</v>
+        <v>54.045920122658096</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>42.695999999999998</v>
+        <v>44.496000000000002</v>
       </c>
       <c r="B91" s="0">
-        <v>2.8492000000000002</v>
+        <v>2.7271999999999998</v>
       </c>
       <c r="C91" s="0">
-        <v>56.779407913123322</v>
+        <v>53.049069593508101</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>43.176000000000002</v>
+        <v>44.996000000000002</v>
       </c>
       <c r="B92" s="0">
-        <v>2.8252000000000002</v>
+        <v>2.7021999999999999</v>
       </c>
       <c r="C92" s="0">
-        <v>55.733870962590309</v>
+        <v>52.081815938072623</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>43.655999999999999</v>
+        <v>45.496000000000002</v>
       </c>
       <c r="B93" s="0">
-        <v>2.8012000000000001</v>
+        <v>2.6772</v>
       </c>
       <c r="C93" s="0">
-        <v>54.735696650297434</v>
+        <v>51.149298081597543</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>44.136000000000003</v>
+        <v>45.996000000000002</v>
       </c>
       <c r="B94" s="0">
-        <v>2.7772000000000001</v>
+        <v>2.6522000000000001</v>
       </c>
       <c r="C94" s="0">
-        <v>53.763906096538491</v>
+        <v>50.227571145432108</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>44.616</v>
+        <v>46.496000000000002</v>
       </c>
       <c r="B95" s="0">
-        <v>2.7532000000000001</v>
+        <v>2.6272000000000002</v>
       </c>
       <c r="C95" s="0">
-        <v>52.815117020002383</v>
+        <v>49.320263640103214</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>45.095999999999997</v>
+        <v>46.996000000000002</v>
       </c>
       <c r="B96" s="0">
-        <v>2.7292000000000005</v>
+        <v>2.6021999999999998</v>
       </c>
       <c r="C96" s="0">
-        <v>51.892237872799136</v>
+        <v>48.425316929060266</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>45.576000000000001</v>
+        <v>47.496000000000002</v>
       </c>
       <c r="B97" s="0">
-        <v>2.7052</v>
+        <v>2.5771999999999999</v>
       </c>
       <c r="C97" s="0">
-        <v>50.994183015930041</v>
+        <v>47.545300474926151</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>46.055999999999997</v>
+        <v>47.996000000000002</v>
       </c>
       <c r="B98" s="0">
-        <v>2.6812000000000005</v>
+        <v>2.5522</v>
       </c>
       <c r="C98" s="0">
-        <v>50.114643510200814</v>
+        <v>46.692109494783303</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>46.536000000000001</v>
+        <v>48.496000000000002</v>
       </c>
       <c r="B99" s="0">
-        <v>2.6572</v>
+        <v>2.5272000000000001</v>
       </c>
       <c r="C99" s="0">
-        <v>49.248948057651603</v>
+        <v>45.832425862907144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>47.015999999999998</v>
+        <v>48.996000000000002</v>
       </c>
       <c r="B100" s="0">
-        <v>2.6332000000000004</v>
+        <v>2.5022000000000002</v>
       </c>
       <c r="C100" s="0">
-        <v>48.389990657563771</v>
+        <v>44.997053588123123</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>47.496000000000002</v>
+        <v>49.496000000000002</v>
       </c>
       <c r="B101" s="0">
-        <v>2.6092</v>
+        <v>2.4771999999999998</v>
       </c>
       <c r="C101" s="0">
-        <v>47.547899948097566</v>
+        <v>44.15147900228115</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>47.975999999999999</v>
+        <v>49.996000000000002</v>
       </c>
       <c r="B102" s="0">
-        <v>2.5852000000000004</v>
+        <v>2.4521999999999999</v>
       </c>
       <c r="C102" s="0">
-        <v>46.725068311574233</v>
+        <v>43.319628286152373</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>48.456000000000003</v>
+        <v>50.496000000000002</v>
       </c>
       <c r="B103" s="0">
-        <v>2.5611999999999999</v>
+        <v>2.4272</v>
       </c>
       <c r="C103" s="0">
-        <v>45.902448277238776</v>
+        <v>42.494516285853194</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>48.936</v>
+        <v>50.996000000000002</v>
       </c>
       <c r="B104" s="0">
-        <v>2.5372000000000003</v>
+        <v>2.4022000000000001</v>
       </c>
       <c r="C104" s="0">
-        <v>45.096667065916066</v>
+        <v>41.663917579746467</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>49.415999999999997</v>
+        <v>51.496000000000002</v>
       </c>
       <c r="B105" s="0">
-        <v>2.5132000000000003</v>
+        <v>2.3772000000000002</v>
       </c>
       <c r="C105" s="0">
-        <v>44.283053219946488</v>
+        <v>40.850235219326123</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>49.896000000000001</v>
+        <v>51.996000000000002</v>
       </c>
       <c r="B106" s="0">
-        <v>2.4892000000000003</v>
+        <v>2.3521999999999998</v>
       </c>
       <c r="C106" s="0">
-        <v>43.486748033696642</v>
+        <v>40.031922142029096</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>50.375999999999998</v>
+        <v>52.496000000000002</v>
       </c>
       <c r="B107" s="0">
-        <v>2.4652000000000003</v>
+        <v>2.3271999999999999</v>
       </c>
       <c r="C107" s="0">
-        <v>42.687621431708386</v>
+        <v>39.224096705433617</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>50.856000000000002</v>
+        <v>52.996000000000002</v>
       </c>
       <c r="B108" s="0">
-        <v>2.4412000000000003</v>
+        <v>2.3022</v>
       </c>
       <c r="C108" s="0">
-        <v>41.895269373577662</v>
+        <v>38.406718896077201</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>51.335999999999999</v>
+        <v>53.496000000000002</v>
       </c>
       <c r="B109" s="0">
-        <v>2.4172000000000002</v>
+        <v>2.2772000000000001</v>
       </c>
       <c r="C109" s="0">
-        <v>41.110302072104425</v>
+        <v>37.59179611832019</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>51.816000000000003</v>
+        <v>53.996000000000002</v>
       </c>
       <c r="B110" s="0">
-        <v>2.3932000000000002</v>
+        <v>2.2522000000000002</v>
       </c>
       <c r="C110" s="0">
-        <v>40.326115862179101</v>
+        <v>36.78455255973973</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>52.295999999999999</v>
+        <v>54.496000000000002</v>
       </c>
       <c r="B111" s="0">
-        <v>2.3692000000000002</v>
+        <v>2.2271999999999998</v>
       </c>
       <c r="C111" s="0">
-        <v>39.543465884137809</v>
+        <v>35.965611607643694</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>52.776000000000003</v>
+        <v>54.996000000000002</v>
       </c>
       <c r="B112" s="0">
-        <v>2.3452000000000002</v>
+        <v>2.2021999999999999</v>
       </c>
       <c r="C112" s="0">
-        <v>38.7636923384038</v>
+        <v>35.160455854306122</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>53.256</v>
+        <v>55.496000000000002</v>
       </c>
       <c r="B113" s="0">
-        <v>2.3212000000000002</v>
+        <v>2.1772</v>
       </c>
       <c r="C113" s="0">
-        <v>37.9851218908452</v>
+        <v>34.331743016341946</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>53.735999999999997</v>
+        <v>55.996000000000002</v>
       </c>
       <c r="B114" s="0">
-        <v>2.2972000000000001</v>
+        <v>2.1522000000000001</v>
       </c>
       <c r="C114" s="0">
-        <v>37.202726314528675</v>
+        <v>33.513049250215026</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>54.216000000000001</v>
+        <v>56.496000000000002</v>
       </c>
       <c r="B115" s="0">
-        <v>2.2732000000000001</v>
+        <v>2.1272000000000002</v>
       </c>
       <c r="C115" s="0">
-        <v>36.428511358645743</v>
+        <v>32.686614935866281</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>54.695999999999998</v>
+        <v>56.996000000000002</v>
       </c>
       <c r="B116" s="0">
-        <v>2.2492000000000001</v>
+        <v>2.1021999999999998</v>
       </c>
       <c r="C116" s="0">
-        <v>35.641080608456093</v>
+        <v>31.86562058262593</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>55.176000000000002</v>
+        <v>57.496000000000002</v>
       </c>
       <c r="B117" s="0">
-        <v>2.2252000000000001</v>
+        <v>2.0771999999999999</v>
       </c>
       <c r="C117" s="0">
-        <v>34.859592126801608</v>
+        <v>31.02525111252384</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>55.655999999999999</v>
+        <v>57.996000000000002</v>
       </c>
       <c r="B118" s="0">
-        <v>2.2012</v>
+        <v>2.0522</v>
       </c>
       <c r="C118" s="0">
-        <v>34.074544895596276</v>
+        <v>30.187603679742718</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>56.136000000000003</v>
+        <v>58.496000000000002</v>
       </c>
       <c r="B119" s="0">
-        <v>2.1772</v>
+        <v>2.0272000000000001</v>
       </c>
       <c r="C119" s="0">
-        <v>33.281186249850279</v>
+        <v>29.33481619984294</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>56.616</v>
+        <v>58.996000000000002</v>
       </c>
       <c r="B120" s="0">
-        <v>2.1532</v>
+        <v>2.0022000000000002</v>
       </c>
       <c r="C120" s="0">
-        <v>32.491492953247885</v>
+        <v>28.487941737406988</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>57.095999999999997</v>
+        <v>59.496000000000002</v>
       </c>
       <c r="B121" s="0">
-        <v>2.1292000000000004</v>
+        <v>1.9771999999999998</v>
       </c>
       <c r="C121" s="0">
-        <v>31.696561025272484</v>
+        <v>27.625710332448303</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>57.576000000000001</v>
+        <v>59.996000000000002</v>
       </c>
       <c r="B122" s="0">
-        <v>2.1052</v>
+        <v>1.9521999999999999</v>
       </c>
       <c r="C122" s="0">
-        <v>30.893157503892674</v>
+        <v>26.748495942560115</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>58.055999999999997</v>
+        <v>60.496000000000002</v>
       </c>
       <c r="B123" s="0">
-        <v>2.0812000000000004</v>
+        <v>1.9272</v>
       </c>
       <c r="C123" s="0">
-        <v>30.087202219826722</v>
+        <v>25.863828203881681</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>58.536000000000001</v>
+        <v>60.996000000000002</v>
       </c>
       <c r="B124" s="0">
-        <v>2.0571999999999999</v>
+        <v>1.9021999999999999</v>
       </c>
       <c r="C124" s="0">
-        <v>29.26795712061325</v>
+        <v>24.964944467297411</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>59.015999999999998</v>
+        <v>61.496000000000002</v>
       </c>
       <c r="B125" s="0">
-        <v>2.0332000000000003</v>
+        <v>1.8772</v>
       </c>
       <c r="C125" s="0">
-        <v>28.4533927416457</v>
+        <v>24.059792453535774</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>59.496000000000002</v>
+        <v>61.996000000000002</v>
       </c>
       <c r="B126" s="0">
-        <v>2.0091999999999999</v>
+        <v>1.8522000000000001</v>
       </c>
       <c r="C126" s="0">
-        <v>27.624827404479575</v>
+        <v>23.141710482031346</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>59.975999999999999</v>
+        <v>62.496000000000002</v>
       </c>
       <c r="B127" s="0">
-        <v>1.9852000000000001</v>
+        <v>1.8271999999999999</v>
       </c>
       <c r="C127" s="0">
-        <v>26.7846045434583</v>
+        <v>22.212946037919306</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>60.456000000000003</v>
+        <v>62.996000000000002</v>
       </c>
       <c r="B128" s="0">
-        <v>1.9612000000000001</v>
+        <v>1.8022</v>
       </c>
       <c r="C128" s="0">
-        <v>25.934592725675724</v>
+        <v>21.262742231031005</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>60.936</v>
+        <v>63.496000000000002</v>
       </c>
       <c r="B129" s="0">
-        <v>1.9372</v>
+        <v>1.7771999999999999</v>
       </c>
       <c r="C129" s="0">
-        <v>25.078518145885731</v>
+        <v>20.297708013911222</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>61.415999999999997</v>
+        <v>63.996000000000002</v>
       </c>
       <c r="B130" s="0">
-        <v>1.9132000000000002</v>
+        <v>1.7522</v>
       </c>
       <c r="C130" s="0">
-        <v>24.206888888888887</v>
+        <v>19.313667776074197</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>61.896000000000001</v>
+        <v>64.495999999999995</v>
       </c>
       <c r="B131" s="0">
-        <v>1.8892</v>
+        <v>1.7272000000000003</v>
       </c>
       <c r="C131" s="0">
-        <v>23.330913802052141</v>
+        <v>18.31537302269923</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>62.375999999999998</v>
+        <v>64.995999999999995</v>
       </c>
       <c r="B132" s="0">
-        <v>1.8652000000000002</v>
+        <v>1.7022000000000004</v>
       </c>
       <c r="C132" s="0">
-        <v>22.438288258074813</v>
+        <v>17.286860252047415</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>62.856000000000002</v>
+        <v>65.495999999999995</v>
       </c>
       <c r="B133" s="0">
-        <v>1.8411999999999999</v>
+        <v>1.6772000000000002</v>
       </c>
       <c r="C133" s="0">
-        <v>21.527781131472828</v>
+        <v>16.2457877416701</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>63.335999999999999</v>
+        <v>65.995999999999995</v>
       </c>
       <c r="B134" s="0">
-        <v>1.8172000000000001</v>
+        <v>1.6522000000000003</v>
       </c>
       <c r="C134" s="0">
-        <v>20.611657284305505</v>
+        <v>15.177311618862422</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>63.816000000000003</v>
+        <v>66.495999999999995</v>
       </c>
       <c r="B135" s="0">
-        <v>1.7931999999999999</v>
+        <v>1.6272000000000002</v>
       </c>
       <c r="C135" s="0">
-        <v>19.672696929772023</v>
+        <v>14.083692457275347</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>64.296000000000006</v>
+        <v>66.995999999999995</v>
       </c>
       <c r="B136" s="0">
-        <v>1.7691999999999997</v>
+        <v>1.6022000000000003</v>
       </c>
       <c r="C136" s="0">
-        <v>18.715803888689262</v>
+        <v>12.965970232975582</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>64.775999999999996</v>
+        <v>67.495999999999995</v>
       </c>
       <c r="B137" s="0">
-        <v>1.7452000000000003</v>
+        <v>1.5772000000000004</v>
       </c>
       <c r="C137" s="0">
-        <v>17.742847526649896</v>
+        <v>11.827157548334021</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>65.256</v>
+        <v>67.995999999999995</v>
       </c>
       <c r="B138" s="0">
-        <v>1.7212000000000001</v>
+        <v>1.5522000000000002</v>
       </c>
       <c r="C138" s="0">
-        <v>16.752976484209682</v>
+        <v>10.655617590965184</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>65.736000000000004</v>
+        <v>68.495999999999995</v>
       </c>
       <c r="B139" s="0">
-        <v>1.6971999999999998</v>
+        <v>1.5272000000000003</v>
       </c>
       <c r="C139" s="0">
-        <v>15.734606300155704</v>
+        <v>9.4438644777682228</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>66.215999999999994</v>
+        <v>68.995999999999995</v>
       </c>
       <c r="B140" s="0">
-        <v>1.6732000000000005</v>
+        <v>1.5022000000000002</v>
       </c>
       <c r="C140" s="0">
-        <v>14.703263863935799</v>
+        <v>8.1948812684641563</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>66.695999999999998</v>
+        <v>69.495999999999995</v>
       </c>
       <c r="B141" s="0">
-        <v>1.6492000000000002</v>
+        <v>1.4772000000000003</v>
       </c>
       <c r="C141" s="0">
-        <v>13.647068231724358</v>
+        <v>6.9139826483676758</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>67.176000000000002</v>
+        <v>69.995999999999995</v>
       </c>
       <c r="B142" s="0">
-        <v>1.6252</v>
+        <v>1.4522000000000004</v>
       </c>
       <c r="C142" s="0">
-        <v>12.554367469157981</v>
+        <v>5.6111603904117286</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>67.656000000000006</v>
+        <v>70.495999999999995</v>
       </c>
       <c r="B143" s="0">
-        <v>1.6011999999999997</v>
+        <v>1.4272000000000002</v>
       </c>
       <c r="C143" s="0">
-        <v>11.449636203936597</v>
+        <v>4.2464073894020435</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>68.135999999999996</v>
+        <v>70.995999999999995</v>
       </c>
       <c r="B144" s="0">
-        <v>1.5772000000000004</v>
+        <v>1.4022000000000003</v>
       </c>
       <c r="C144" s="0">
-        <v>10.318995887731065</v>
+        <v>2.84893945626566</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>68.616</v>
+        <v>71.495999999999995</v>
       </c>
       <c r="B145" s="0">
-        <v>1.5532000000000001</v>
+        <v>1.3772000000000002</v>
       </c>
       <c r="C145" s="0">
-        <v>9.1517978200982135</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="0">
-        <v>69.096000000000004</v>
-      </c>
-      <c r="B146" s="0">
-        <v>1.5291999999999999</v>
-      </c>
-      <c r="C146" s="0">
-        <v>7.9414184533077785</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="0">
-        <v>69.575999999999993</v>
-      </c>
-      <c r="B147" s="0">
-        <v>1.5052000000000003</v>
-      </c>
-      <c r="C147" s="0">
-        <v>6.7074218868527149</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="0">
-        <v>70.055999999999997</v>
-      </c>
-      <c r="B148" s="0">
-        <v>1.4812000000000003</v>
-      </c>
-      <c r="C148" s="0">
-        <v>5.4494524693576061</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="0">
-        <v>70.536000000000001</v>
-      </c>
-      <c r="B149" s="0">
-        <v>1.4572000000000001</v>
-      </c>
-      <c r="C149" s="0">
-        <v>4.1346114903980506</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="0">
-        <v>71.016000000000005</v>
-      </c>
-      <c r="B150" s="0">
-        <v>1.4331999999999998</v>
-      </c>
-      <c r="C150" s="0">
-        <v>2.7929207489918944</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="0">
-        <v>71.495999999999995</v>
-      </c>
-      <c r="B151" s="0">
-        <v>1.4092000000000002</v>
-      </c>
-      <c r="C151" s="0">
-        <v>1.3951029664231245</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="0">
-        <v>71.975999999999999</v>
-      </c>
-      <c r="B152" s="0">
-        <v>1.3852000000000002</v>
-      </c>
-      <c r="C152" s="0">
-        <v>0.126506829724221</v>
+        <v>1.3971496952245619</v>
       </c>
     </row>
   </sheetData>
